--- a/Sample_Bank_Data/JUN 2022.xlsx
+++ b/Sample_Bank_Data/JUN 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4FEC44A6-F370-4451-99A3-1F41E4B120F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04ADED00-D2E3-42FF-B77B-21746D28C4BB}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4FEC44A6-F370-4451-99A3-1F41E4B120F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC679948-4848-4AA6-8710-005DEDAC26F9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="304">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -520,370 +520,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Internal risk rating</t>
@@ -1926,33 +1671,33 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="M1" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1963,13 +1708,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -1980,13 +1725,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -1997,13 +1742,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -2014,13 +1759,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -2031,13 +1776,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -2048,13 +1793,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -2065,13 +1810,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -2082,13 +1827,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -2099,13 +1844,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -2116,13 +1861,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -2133,13 +1878,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2150,13 +1895,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -2167,13 +1912,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -2184,13 +1929,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -2201,13 +1946,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -2218,13 +1963,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2235,13 +1980,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2252,13 +1997,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2269,13 +2014,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2286,7 +2031,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2297,13 +2042,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="C23" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2311,10 +2056,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2322,7 +2067,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2345,21 +2090,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2373,7 +2118,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2387,7 +2132,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2401,7 +2146,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2415,7 +2160,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2429,7 +2174,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2443,7 +2188,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2457,7 +2202,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2471,7 +2216,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2485,7 +2230,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2499,7 +2244,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2513,7 +2258,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2527,7 +2272,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2541,7 +2286,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2555,7 +2300,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2569,7 +2314,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2583,7 +2328,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2597,7 +2342,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2611,7 +2356,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2625,7 +2370,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2639,7 +2384,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -3564,8 +3309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8711,8 +8456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9575,7 +9320,7 @@
         <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9607,7 +9352,7 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9639,7 +9384,7 @@
         <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9671,7 +9416,7 @@
         <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9703,7 +9448,7 @@
         <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9735,7 +9480,7 @@
         <v>125</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9767,7 +9512,7 @@
         <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9799,7 +9544,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9831,7 +9576,7 @@
         <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9863,7 +9608,7 @@
         <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9895,7 +9640,7 @@
         <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9927,7 +9672,7 @@
         <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9959,7 +9704,7 @@
         <v>128</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9991,7 +9736,7 @@
         <v>125</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -10023,7 +9768,7 @@
         <v>125</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -10055,7 +9800,7 @@
         <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10087,7 +9832,7 @@
         <v>133</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -10119,7 +9864,7 @@
         <v>128</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -10151,7 +9896,7 @@
         <v>133</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10183,7 +9928,7 @@
         <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10215,7 +9960,7 @@
         <v>128</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10247,7 +9992,7 @@
         <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10279,7 +10024,7 @@
         <v>125</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10311,7 +10056,7 @@
         <v>128</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10343,7 +10088,7 @@
         <v>140</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10375,7 +10120,7 @@
         <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10407,7 +10152,7 @@
         <v>128</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10439,7 +10184,7 @@
         <v>125</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10471,7 +10216,7 @@
         <v>125</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10503,7 +10248,7 @@
         <v>128</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10535,7 +10280,7 @@
         <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10567,7 +10312,7 @@
         <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10599,7 +10344,7 @@
         <v>128</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10631,7 +10376,7 @@
         <v>125</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10663,7 +10408,7 @@
         <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10695,7 +10440,7 @@
         <v>128</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10727,7 +10472,7 @@
         <v>133</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10759,7 +10504,7 @@
         <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10791,7 +10536,7 @@
         <v>128</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10823,7 +10568,7 @@
         <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10855,7 +10600,7 @@
         <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10887,7 +10632,7 @@
         <v>128</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10919,7 +10664,7 @@
         <v>125</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10951,7 +10696,7 @@
         <v>125</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10983,7 +10728,7 @@
         <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -11015,7 +10760,7 @@
         <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -11047,7 +10792,7 @@
         <v>128</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11079,7 +10824,7 @@
         <v>128</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -11111,7 +10856,7 @@
         <v>128</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -11143,7 +10888,7 @@
         <v>125</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11175,7 +10920,7 @@
         <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11207,7 +10952,7 @@
         <v>133</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11239,7 +10984,7 @@
         <v>133</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11271,7 +11016,7 @@
         <v>128</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11303,7 +11048,7 @@
         <v>125</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11335,7 +11080,7 @@
         <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11367,7 +11112,7 @@
         <v>140</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11399,7 +11144,7 @@
         <v>140</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11431,7 +11176,7 @@
         <v>128</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11463,7 +11208,7 @@
         <v>128</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11495,7 +11240,7 @@
         <v>133</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11527,7 +11272,7 @@
         <v>133</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11559,7 +11304,7 @@
         <v>140</v>
       </c>
       <c r="I89" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11591,7 +11336,7 @@
         <v>140</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11623,7 +11368,7 @@
         <v>128</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11655,7 +11400,7 @@
         <v>125</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11687,7 +11432,7 @@
         <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11719,7 +11464,7 @@
         <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11751,7 +11496,7 @@
         <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11783,7 +11528,7 @@
         <v>128</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11815,7 +11560,7 @@
         <v>140</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11847,7 +11592,7 @@
         <v>140</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11879,7 +11624,7 @@
         <v>128</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11911,7 +11656,7 @@
         <v>133</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11943,7 +11688,7 @@
         <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11975,7 +11720,7 @@
         <v>128</v>
       </c>
       <c r="I102" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -12007,7 +11752,7 @@
         <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -12039,7 +11784,7 @@
         <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -12071,7 +11816,7 @@
         <v>140</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12103,7 +11848,7 @@
         <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -12135,7 +11880,7 @@
         <v>128</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12167,7 +11912,7 @@
         <v>125</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12199,7 +11944,7 @@
         <v>125</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12231,7 +11976,7 @@
         <v>125</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12263,7 +12008,7 @@
         <v>125</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12295,7 +12040,7 @@
         <v>140</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12327,7 +12072,7 @@
         <v>140</v>
       </c>
       <c r="I113" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12359,7 +12104,7 @@
         <v>128</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12391,7 +12136,7 @@
         <v>125</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12423,7 +12168,7 @@
         <v>125</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12455,7 +12200,7 @@
         <v>133</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12487,7 +12232,7 @@
         <v>133</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12519,7 +12264,7 @@
         <v>125</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12551,7 +12296,7 @@
         <v>125</v>
       </c>
       <c r="I120" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12583,7 +12328,7 @@
         <v>133</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12615,7 +12360,7 @@
         <v>133</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12647,7 +12392,7 @@
         <v>140</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12679,7 +12424,7 @@
         <v>140</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12711,7 +12456,7 @@
         <v>125</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12743,7 +12488,7 @@
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12775,7 +12520,7 @@
         <v>128</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12807,7 +12552,7 @@
         <v>125</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12839,7 +12584,7 @@
         <v>125</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12871,7 +12616,7 @@
         <v>133</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12903,7 +12648,7 @@
         <v>133</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12935,7 +12680,7 @@
         <v>140</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12967,7 +12712,7 @@
         <v>140</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12999,7 +12744,7 @@
         <v>128</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -13031,7 +12776,7 @@
         <v>133</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -13063,7 +12808,7 @@
         <v>133</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13095,7 +12840,7 @@
         <v>128</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -13127,7 +12872,7 @@
         <v>125</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13159,7 +12904,7 @@
         <v>125</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13191,7 +12936,7 @@
         <v>140</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13223,7 +12968,7 @@
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13255,7 +13000,7 @@
         <v>140</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13287,7 +13032,7 @@
         <v>140</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13319,7 +13064,7 @@
         <v>128</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13351,7 +13096,7 @@
         <v>125</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13383,7 +13128,7 @@
         <v>125</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13415,7 +13160,7 @@
         <v>133</v>
       </c>
       <c r="I147" t="s">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13447,7 +13192,7 @@
         <v>133</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13479,22 +13224,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -13726,7 +13471,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13756,7 +13501,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -13782,27 +13527,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="24" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="27" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="C3" s="28">
         <v>53896550.399999999</v>
@@ -13811,20 +13556,20 @@
         <v>2022</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F36" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>10800410.08</v>
+        <v>10800336.08</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G36" ca="1" si="1">C3-F3</f>
-        <v>43096140.32</v>
+        <v>43096214.32</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1">
       <c r="B4" s="27" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="C4" s="28">
         <v>67366252.799999997</v>
@@ -13833,20 +13578,20 @@
         <v>2019</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13486965.560000001</v>
+        <v>13485273.560000001</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53879287.239999995</v>
+        <v>53880979.239999995</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
       <c r="B5" s="27" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="C5" s="28">
         <v>107760576</v>
@@ -13855,20 +13600,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21570068.200000003</v>
+        <v>21567834.200000003</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86190507.799999997</v>
+        <v>86192741.799999997</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="27" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="C6" s="28">
         <v>121082438.40000001</v>
@@ -13877,20 +13622,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24233820.680000003</v>
+        <v>24228491.680000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96848617.719999999</v>
+        <v>96853946.719999999</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="27" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="C7" s="28">
         <v>16608345.6</v>
@@ -13899,20 +13644,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3323895.12</v>
+        <v>3325364.12</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13284450.48</v>
+        <v>13282981.48</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="27" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="C8" s="28">
         <v>33034848</v>
@@ -13921,20 +13666,20 @@
         <v>2019</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6628402.6000000006</v>
+        <v>6629655.6000000006</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26406445.399999999</v>
+        <v>26405192.399999999</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1">
       <c r="B9" s="27" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="C9" s="28">
         <v>49461350.399999999</v>
@@ -13943,20 +13688,20 @@
         <v>2020</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9916749.0800000001</v>
+        <v>9904641.0800000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39544601.32</v>
+        <v>39556709.32</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="27" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="C10" s="28">
         <v>65887852.799999997</v>
@@ -13965,20 +13710,20 @@
         <v>2020</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13184483.560000001</v>
+        <v>13184217.560000001</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52703369.239999995</v>
+        <v>52703635.239999995</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="27" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C11" s="28">
         <v>82314355.199999988</v>
@@ -13987,20 +13732,20 @@
         <v>2020</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16463103.039999999</v>
+        <v>16476482.039999999</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65851252.159999989</v>
+        <v>65837873.159999989</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="27" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="C12" s="28">
         <v>98740857.600000009</v>
@@ -14009,20 +13754,20 @@
         <v>2020</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19768244.520000003</v>
+        <v>19758616.520000003</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78972613.080000013</v>
+        <v>78982241.080000013</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30" customHeight="1">
       <c r="B13" s="27" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="C13" s="28">
         <v>115152576</v>
@@ -14031,20 +13776,20 @@
         <v>2020</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23034858.200000003</v>
+        <v>23041356.200000003</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92117717.799999997</v>
+        <v>92111219.799999997</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="27" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="C14" s="28">
         <v>131431238.40000001</v>
@@ -14053,20 +13798,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26303417.680000003</v>
+        <v>26295601.680000003</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105127820.72</v>
+        <v>105135636.72</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1">
       <c r="B15" s="27" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="C15" s="28">
         <v>146379340.80000001</v>
@@ -14075,20 +13820,20 @@
         <v>2017</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29287073.160000004</v>
+        <v>29297162.160000004</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117092267.64000002</v>
+        <v>117082178.64000002</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="27" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="C16" s="28">
         <v>14965843.199999999</v>
@@ -14097,20 +13842,20 @@
         <v>2017</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3014296.64</v>
+        <v>3011254.64</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11951546.559999999</v>
+        <v>11954588.559999999</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="27" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="C17" s="28">
         <v>31392345.600000001</v>
@@ -14119,20 +13864,20 @@
         <v>2017</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6281546.120000001</v>
+        <v>6282521.120000001</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25110799.48</v>
+        <v>25109824.48</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="27" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="C18" s="28">
         <v>47818848</v>
@@ -14141,20 +13886,20 @@
         <v>2017</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9569754.5999999996</v>
+        <v>9577674.5999999996</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38249093.399999999</v>
+        <v>38241173.399999999</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="27" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="C19" s="28">
         <v>64245350.399999999</v>
@@ -14163,20 +13908,20 @@
         <v>2017</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12864464.08</v>
+        <v>12852812.08</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51380886.32</v>
+        <v>51392538.32</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="27" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="C20" s="28">
         <v>80671852.799999997</v>
@@ -14185,20 +13930,20 @@
         <v>2017</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16135757.560000001</v>
+        <v>16136949.560000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64536095.239999995</v>
+        <v>64534903.239999995</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="27" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C21" s="28">
         <v>97098355.199999988</v>
@@ -14207,20 +13952,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19440678.039999999</v>
+        <v>19444494.039999999</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77657677.159999996</v>
+        <v>77653861.159999996</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="27" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="C22" s="28">
         <v>113524857.59999999</v>
@@ -14229,20 +13974,20 @@
         <v>2015</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22726963.52</v>
+        <v>22707363.52</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90797894.079999998</v>
+        <v>90817494.079999998</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="27" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="C23" s="28">
         <v>129936576</v>
@@ -14251,20 +13996,20 @@
         <v>2015</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26008828.200000003</v>
+        <v>26005550.200000003</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103927747.8</v>
+        <v>103931025.8</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="27" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="C24" s="28">
         <v>146215238.40000001</v>
@@ -14273,20 +14018,20 @@
         <v>2015</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29267406.680000003</v>
+        <v>29267036.680000003</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116947831.72</v>
+        <v>116948201.72</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="27" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="C25" s="28">
         <v>28107340.800000001</v>
@@ -14295,20 +14040,20 @@
         <v>2015</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5643275.1600000001</v>
+        <v>5626327.1600000001</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22464065.640000001</v>
+        <v>22481013.640000001</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="27" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="C26" s="28">
         <v>44533843.200000003</v>
@@ -14317,20 +14062,20 @@
         <v>2015</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8920730.6400000006</v>
+        <v>8928987.6400000006</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35613112.560000002</v>
+        <v>35604855.560000002</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="27" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="C27" s="28">
         <v>60960345.599999987</v>
@@ -14339,20 +14084,20 @@
         <v>2015</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12203609.119999997</v>
+        <v>12192371.119999997</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48756736.479999989</v>
+        <v>48767974.479999989</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="27" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="C28" s="28">
         <v>77386848</v>
@@ -14361,20 +14106,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15482570.600000001</v>
+        <v>15487462.600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61904277.399999999</v>
+        <v>61899385.399999999</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="27" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="C29" s="28">
         <v>93813350.399999991</v>
@@ -14383,20 +14128,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18766890.079999998</v>
+        <v>18765685.079999998</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75046460.319999993</v>
+        <v>75047665.319999993</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="27" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="C30" s="28">
         <v>110239852.8</v>
@@ -14405,20 +14150,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22059450.560000002</v>
+        <v>22054117.560000002</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88180402.239999995</v>
+        <v>88185735.239999995</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="27" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="C31" s="28">
         <v>126666355.2</v>
@@ -14427,20 +14172,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25356586.040000003</v>
+        <v>25338368.040000003</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101309769.16</v>
+        <v>101327987.16</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="27" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="C32" s="28">
         <v>143092857.59999999</v>
@@ -14449,20 +14194,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28640016.52</v>
+        <v>28641658.52</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114452841.08</v>
+        <v>114451199.08</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="27" t="s">
-        <v>323</v>
+        <v>238</v>
       </c>
       <c r="C33" s="28">
         <v>26448576</v>
@@ -14471,20 +14216,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5292413.2</v>
+        <v>5304127.2</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21156162.800000001</v>
+        <v>21144448.800000001</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="27" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="C34" s="28">
         <v>42727238.399999999</v>
@@ -14493,20 +14238,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8566520.6799999997</v>
+        <v>8563579.6799999997</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34160717.719999999</v>
+        <v>34163658.719999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="27" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="C35" s="28">
         <v>57675340.799999997</v>
@@ -14515,20 +14260,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11548186.16</v>
+        <v>11539305.16</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46127154.640000001</v>
+        <v>46136035.640000001</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="27" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="C36" s="28">
         <v>74101843.200000003</v>
@@ -14537,15 +14282,15 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14822642.640000001</v>
+        <v>14838278.640000001</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59279200.560000002</v>
+        <v>59263564.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14581,10 +14326,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14605,7 +14350,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="30" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="C38" s="30">
         <v>6</v>
@@ -14623,7 +14368,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="30" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="C39" s="30">
         <v>7</v>
@@ -14681,13 +14426,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14695,7 +14440,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14707,10 +14452,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14732,10 +14477,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14756,10 +14501,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14780,10 +14525,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14804,10 +14549,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H6" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14829,10 +14574,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14854,10 +14599,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H8" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14879,10 +14624,10 @@
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14904,10 +14649,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14929,10 +14674,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14954,7 +14699,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14976,10 +14721,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -15001,7 +14746,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -15024,7 +14769,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -15046,7 +14791,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -15068,10 +14813,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H17" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -15093,7 +14838,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -15115,7 +14860,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -15137,7 +14882,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15160,7 +14905,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15182,7 +14927,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15204,7 +14949,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15226,7 +14971,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15248,7 +14993,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15270,7 +15015,7 @@
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15292,7 +15037,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15314,10 +15059,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H28" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15339,10 +15084,10 @@
         <v>16</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H29" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15364,7 +15109,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15386,7 +15131,7 @@
         <v>17</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15409,7 +15154,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15431,10 +15176,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15456,10 +15201,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15481,10 +15226,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15506,10 +15251,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15531,7 +15276,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15553,7 +15298,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15575,7 +15320,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15597,10 +15342,10 @@
         <v>16</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H40" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15622,10 +15367,10 @@
         <v>9</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H41" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15647,7 +15392,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15669,7 +15414,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15691,7 +15436,7 @@
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15713,7 +15458,7 @@
         <v>11</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15735,7 +15480,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15757,7 +15502,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15779,7 +15524,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15801,7 +15546,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15823,7 +15568,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15845,7 +15590,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Bank_Data/JUN 2022.xlsx
+++ b/Sample_Bank_Data/JUN 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4FEC44A6-F370-4451-99A3-1F41E4B120F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC679948-4848-4AA6-8710-005DEDAC26F9}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4FEC44A6-F370-4451-99A3-1F41E4B120F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2121C690-A934-4BC1-BF5B-A840EF7783AE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="301">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -467,9 +461,6 @@
   </si>
   <si>
     <t>Building4</t>
-  </si>
-  <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>75%</t>
@@ -1671,33 +1662,33 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="M1" t="s">
         <v>266</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="M1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1708,13 +1699,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -1725,13 +1716,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -1742,13 +1733,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -1759,13 +1750,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -1776,13 +1767,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -1793,13 +1784,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
         <v>256</v>
-      </c>
-      <c r="C8" t="s">
-        <v>259</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -1810,13 +1801,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -1827,13 +1818,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -1844,13 +1835,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -1861,13 +1852,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1878,13 +1869,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1895,13 +1886,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -1912,13 +1903,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -1929,13 +1920,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -1946,13 +1937,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -1963,13 +1954,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1980,13 +1971,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1997,13 +1988,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2014,13 +2005,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2031,7 +2022,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2042,13 +2033,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2056,10 +2047,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2067,7 +2058,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2090,21 +2081,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>268</v>
-      </c>
       <c r="C1" s="33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2118,7 +2109,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2132,7 +2123,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2146,7 +2137,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2160,7 +2151,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2174,7 +2165,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2188,7 +2179,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2202,7 +2193,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2216,7 +2207,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2230,7 +2221,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2244,7 +2235,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2258,7 +2249,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2272,7 +2263,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2286,7 +2277,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2300,7 +2291,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2314,7 +2305,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2328,7 +2319,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2342,7 +2333,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2356,7 +2347,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2370,7 +2361,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2384,7 +2375,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -8456,8 +8447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8508,7 +8499,7 @@
         <v>6444691.5</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8517,10 +8508,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8540,7 +8531,7 @@
         <v>6444691.5</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8549,10 +8540,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8581,10 +8572,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8604,7 +8595,7 @@
         <v>12396164</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -8613,10 +8604,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8636,7 +8627,7 @@
         <v>12396164</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -8645,10 +8636,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8668,7 +8659,7 @@
         <v>49453383.5</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -8677,10 +8668,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8700,7 +8691,7 @@
         <v>49453383.5</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -8709,10 +8700,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8741,10 +8732,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -8764,7 +8755,7 @@
         <v>49430497</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -8773,10 +8764,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -8796,7 +8787,7 @@
         <v>49430497</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -8805,10 +8796,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -8828,7 +8819,7 @@
         <v>11711999</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -8837,10 +8828,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -8860,7 +8851,7 @@
         <v>11711999</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -8869,10 +8860,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -8892,7 +8883,7 @@
         <v>38307406</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -8901,10 +8892,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -8924,7 +8915,7 @@
         <v>38307406</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -8933,10 +8924,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -8965,10 +8956,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -8988,7 +8979,7 @@
         <v>28343322</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -8997,10 +8988,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -9020,7 +9011,7 @@
         <v>28343322</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -9029,10 +9020,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -9052,7 +9043,7 @@
         <v>43848327.5</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -9061,10 +9052,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -9084,7 +9075,7 @@
         <v>43848327.5</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9093,10 +9084,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9116,7 +9107,7 @@
         <v>27210677</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -9125,10 +9116,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -9148,7 +9139,7 @@
         <v>27210677</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -9157,10 +9148,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9180,7 +9171,7 @@
         <v>11722928</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9189,10 +9180,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9212,7 +9203,7 @@
         <v>11722928</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -9221,10 +9212,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9244,7 +9235,7 @@
         <v>33900396.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -9253,10 +9244,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9276,7 +9267,7 @@
         <v>33900396.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9285,10 +9276,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9308,7 +9299,7 @@
         <v>15993851</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -9317,10 +9308,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9340,7 +9331,7 @@
         <v>15993851</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9349,10 +9340,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9372,7 +9363,7 @@
         <v>38337995</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9381,10 +9372,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9404,7 +9395,7 @@
         <v>38337995</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9413,10 +9404,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9445,10 +9436,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9468,7 +9459,7 @@
         <v>10496168.5</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9477,10 +9468,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9500,7 +9491,7 @@
         <v>10496168.5</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9509,10 +9500,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9532,7 +9523,7 @@
         <v>45093281</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9541,10 +9532,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9564,7 +9555,7 @@
         <v>45093281</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -9573,10 +9564,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9605,10 +9596,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9628,7 +9619,7 @@
         <v>49397554.5</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -9637,10 +9628,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9660,7 +9651,7 @@
         <v>49397554.5</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -9669,10 +9660,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9701,10 +9692,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9724,7 +9715,7 @@
         <v>11634281</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -9733,10 +9724,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9756,7 +9747,7 @@
         <v>11634281</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -9765,10 +9756,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9788,7 +9779,7 @@
         <v>32756596.5</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -9797,10 +9788,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -9820,7 +9811,7 @@
         <v>32756596.5</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -9829,10 +9820,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -9861,10 +9852,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -9884,7 +9875,7 @@
         <v>39423576</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -9893,10 +9884,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -9916,7 +9907,7 @@
         <v>39423576</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -9925,10 +9916,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -9957,10 +9948,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -9980,7 +9971,7 @@
         <v>22722528.5</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -9989,10 +9980,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10012,7 +10003,7 @@
         <v>22722528.5</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -10021,10 +10012,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10053,10 +10044,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10076,7 +10067,7 @@
         <v>6139853</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -10085,10 +10076,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10108,7 +10099,7 @@
         <v>6139853</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -10117,10 +10108,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10149,10 +10140,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10172,7 +10163,7 @@
         <v>6263003</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -10181,10 +10172,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10204,7 +10195,7 @@
         <v>6263003</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -10213,10 +10204,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10245,10 +10236,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10268,7 +10259,7 @@
         <v>17240326</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -10277,10 +10268,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10300,7 +10291,7 @@
         <v>17240326</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -10309,10 +10300,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10341,10 +10332,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10364,7 +10355,7 @@
         <v>38242692</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10373,10 +10364,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10396,7 +10387,7 @@
         <v>38242692</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10405,10 +10396,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10437,10 +10428,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10460,7 +10451,7 @@
         <v>6150278.5</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10469,10 +10460,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10492,7 +10483,7 @@
         <v>6150278.5</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10501,10 +10492,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10533,10 +10524,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10556,7 +10547,7 @@
         <v>32807594.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10565,10 +10556,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10588,7 +10579,7 @@
         <v>32807594.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -10597,10 +10588,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10629,10 +10620,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10652,7 +10643,7 @@
         <v>28475620.5</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -10661,10 +10652,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10684,7 +10675,7 @@
         <v>28475620.5</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -10693,10 +10684,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10716,7 +10707,7 @@
         <v>39430554</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -10725,10 +10716,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10748,7 +10739,7 @@
         <v>39430554</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -10757,10 +10748,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10789,10 +10780,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -10821,10 +10812,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -10853,10 +10844,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -10876,7 +10867,7 @@
         <v>38301481</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -10885,10 +10876,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -10908,7 +10899,7 @@
         <v>38301481</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -10917,10 +10908,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -10940,7 +10931,7 @@
         <v>43835199</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -10949,10 +10940,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -10972,7 +10963,7 @@
         <v>43835199</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -10981,10 +10972,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11013,10 +11004,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11036,7 +11027,7 @@
         <v>22942872</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -11045,10 +11036,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11068,7 +11059,7 @@
         <v>22942872</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -11077,10 +11068,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11100,7 +11091,7 @@
         <v>11671843.5</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -11109,10 +11100,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11132,7 +11123,7 @@
         <v>11671843.5</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -11141,10 +11132,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11173,10 +11164,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11205,10 +11196,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11228,7 +11219,7 @@
         <v>28338414</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -11237,10 +11228,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11260,7 +11251,7 @@
         <v>28338414</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11269,10 +11260,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11292,7 +11283,7 @@
         <v>33916218.5</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -11301,10 +11292,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11324,7 +11315,7 @@
         <v>33916218.5</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -11333,10 +11324,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11365,10 +11356,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11388,7 +11379,7 @@
         <v>5573145</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11397,10 +11388,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11420,7 +11411,7 @@
         <v>5573145</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11429,10 +11420,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11452,7 +11443,7 @@
         <v>5542077</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11461,10 +11452,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11484,7 +11475,7 @@
         <v>5542077</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11493,10 +11484,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11525,10 +11516,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11548,7 +11539,7 @@
         <v>43839954.5</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11557,10 +11548,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11580,7 +11571,7 @@
         <v>43839954.5</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11589,10 +11580,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11621,10 +11612,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11644,7 +11635,7 @@
         <v>11735450</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -11653,10 +11644,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11676,7 +11667,7 @@
         <v>11735450</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -11685,10 +11676,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11717,10 +11708,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11740,7 +11731,7 @@
         <v>49477569.5</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -11749,10 +11740,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11772,7 +11763,7 @@
         <v>49477569.5</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -11781,10 +11772,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11804,7 +11795,7 @@
         <v>11828672.5</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -11813,10 +11804,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -11836,7 +11827,7 @@
         <v>11828672.5</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -11845,10 +11836,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -11877,10 +11868,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -11900,7 +11891,7 @@
         <v>6184611</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -11909,10 +11900,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -11932,7 +11923,7 @@
         <v>6184611</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -11941,10 +11932,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -11964,7 +11955,7 @@
         <v>17280080</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -11973,10 +11964,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -11996,7 +11987,7 @@
         <v>17280080</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -12005,10 +11996,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12028,7 +12019,7 @@
         <v>32651935</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -12037,10 +12028,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12060,7 +12051,7 @@
         <v>32651935</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -12069,10 +12060,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12101,10 +12092,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12124,7 +12115,7 @@
         <v>38176726</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -12133,10 +12124,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12156,7 +12147,7 @@
         <v>38176726</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -12165,10 +12156,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12188,7 +12179,7 @@
         <v>49275162.5</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -12197,10 +12188,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12220,7 +12211,7 @@
         <v>49275162.5</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -12229,10 +12220,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12252,7 +12243,7 @@
         <v>22816544</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -12261,10 +12252,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12284,7 +12275,7 @@
         <v>22816544</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -12293,10 +12284,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12316,7 +12307,7 @@
         <v>22861216.5</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -12325,10 +12316,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12348,7 +12339,7 @@
         <v>22861216.5</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12357,10 +12348,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12380,7 +12371,7 @@
         <v>11776144</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12389,10 +12380,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12412,7 +12403,7 @@
         <v>11776144</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12421,10 +12412,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12444,7 +12435,7 @@
         <v>32650008</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12453,10 +12444,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12476,7 +12467,7 @@
         <v>32650008</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12485,10 +12476,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12517,10 +12508,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12540,7 +12531,7 @@
         <v>28455602.5</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12549,10 +12540,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12572,7 +12563,7 @@
         <v>28455602.5</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -12581,10 +12572,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12604,7 +12595,7 @@
         <v>17290559.5</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -12613,10 +12604,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12636,7 +12627,7 @@
         <v>17290559.5</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -12645,10 +12636,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12668,7 +12659,7 @@
         <v>27075444</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -12677,10 +12668,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12700,7 +12691,7 @@
         <v>27075444</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -12709,10 +12700,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12741,10 +12732,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12764,7 +12755,7 @@
         <v>33916216.5</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -12773,10 +12764,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12796,7 +12787,7 @@
         <v>33916216.5</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -12805,10 +12796,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12837,10 +12828,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12860,7 +12851,7 @@
         <v>21675199</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -12869,10 +12860,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -12892,7 +12883,7 @@
         <v>21675199</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -12901,10 +12892,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -12924,7 +12915,7 @@
         <v>32699103</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -12933,10 +12924,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -12956,7 +12947,7 @@
         <v>32699103</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -12965,10 +12956,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -12988,7 +12979,7 @@
         <v>39486410</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -12997,10 +12988,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13020,7 +13011,7 @@
         <v>39486410</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -13029,10 +13020,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13061,10 +13052,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13084,7 +13075,7 @@
         <v>15982202</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13093,10 +13084,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13116,7 +13107,7 @@
         <v>15982202</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -13125,10 +13116,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13148,7 +13139,7 @@
         <v>27228826</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -13157,10 +13148,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13180,7 +13171,7 @@
         <v>27228826</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -13189,10 +13180,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13224,22 +13215,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -13471,7 +13462,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13501,7 +13492,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -13527,27 +13518,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>202</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C3" s="28">
         <v>53896550.399999999</v>
@@ -13556,20 +13547,20 @@
         <v>2022</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F36" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>10800336.08</v>
+        <v>10803393.08</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G36" ca="1" si="1">C3-F3</f>
-        <v>43096214.32</v>
+        <v>43093157.32</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1">
       <c r="B4" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C4" s="28">
         <v>67366252.799999997</v>
@@ -13578,20 +13569,20 @@
         <v>2019</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13485273.560000001</v>
+        <v>13485838.560000001</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53880979.239999995</v>
+        <v>53880414.239999995</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
       <c r="B5" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C5" s="28">
         <v>107760576</v>
@@ -13600,20 +13591,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21567834.200000003</v>
+        <v>21574447.200000003</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86192741.799999997</v>
+        <v>86186128.799999997</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C6" s="28">
         <v>121082438.40000001</v>
@@ -13622,20 +13613,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24228491.680000003</v>
+        <v>24238826.680000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96853946.719999999</v>
+        <v>96843611.719999999</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C7" s="28">
         <v>16608345.6</v>
@@ -13644,20 +13635,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3325364.12</v>
+        <v>3337239.12</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13282981.48</v>
+        <v>13271106.48</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C8" s="28">
         <v>33034848</v>
@@ -13666,20 +13657,20 @@
         <v>2019</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6629655.6000000006</v>
+        <v>6614819.6000000006</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26405192.399999999</v>
+        <v>26420028.399999999</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1">
       <c r="B9" s="27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C9" s="28">
         <v>49461350.399999999</v>
@@ -13688,20 +13679,20 @@
         <v>2020</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9904641.0800000001</v>
+        <v>9914182.0800000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39556709.32</v>
+        <v>39547168.32</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="27" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C10" s="28">
         <v>65887852.799999997</v>
@@ -13710,20 +13701,20 @@
         <v>2020</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13184217.560000001</v>
+        <v>13201246.560000001</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52703635.239999995</v>
+        <v>52686606.239999995</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C11" s="28">
         <v>82314355.199999988</v>
@@ -13732,20 +13723,20 @@
         <v>2020</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16476482.039999999</v>
+        <v>16463401.039999999</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65837873.159999989</v>
+        <v>65850954.159999989</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C12" s="28">
         <v>98740857.600000009</v>
@@ -13754,20 +13745,20 @@
         <v>2020</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19758616.520000003</v>
+        <v>19757212.520000003</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78982241.080000013</v>
+        <v>78983645.080000013</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30" customHeight="1">
       <c r="B13" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C13" s="28">
         <v>115152576</v>
@@ -13776,20 +13767,20 @@
         <v>2020</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23041356.200000003</v>
+        <v>23047868.200000003</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92111219.799999997</v>
+        <v>92104707.799999997</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C14" s="28">
         <v>131431238.40000001</v>
@@ -13798,20 +13789,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26295601.680000003</v>
+        <v>26307904.680000003</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105135636.72</v>
+        <v>105123333.72</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1">
       <c r="B15" s="27" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C15" s="28">
         <v>146379340.80000001</v>
@@ -13820,20 +13811,20 @@
         <v>2017</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29297162.160000004</v>
+        <v>29292842.160000004</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117082178.64000002</v>
+        <v>117086498.64000002</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C16" s="28">
         <v>14965843.199999999</v>
@@ -13842,20 +13833,20 @@
         <v>2017</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3011254.64</v>
+        <v>2998454.64</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11954588.559999999</v>
+        <v>11967388.559999999</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C17" s="28">
         <v>31392345.600000001</v>
@@ -13864,20 +13855,20 @@
         <v>2017</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6282521.120000001</v>
+        <v>6282364.120000001</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25109824.48</v>
+        <v>25109981.48</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C18" s="28">
         <v>47818848</v>
@@ -13886,20 +13877,20 @@
         <v>2017</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9577674.5999999996</v>
+        <v>9574456.5999999996</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38241173.399999999</v>
+        <v>38244391.399999999</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C19" s="28">
         <v>64245350.399999999</v>
@@ -13908,20 +13899,20 @@
         <v>2017</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12852812.08</v>
+        <v>12869798.08</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51392538.32</v>
+        <v>51375552.32</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C20" s="28">
         <v>80671852.799999997</v>
@@ -13930,20 +13921,20 @@
         <v>2017</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16136949.560000001</v>
+        <v>16137253.560000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64534903.239999995</v>
+        <v>64534599.239999995</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C21" s="28">
         <v>97098355.199999988</v>
@@ -13952,20 +13943,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19444494.039999999</v>
+        <v>19424582.039999999</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77653861.159999996</v>
+        <v>77673773.159999996</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C22" s="28">
         <v>113524857.59999999</v>
@@ -13974,20 +13965,20 @@
         <v>2015</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22707363.52</v>
+        <v>22716880.52</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90817494.079999998</v>
+        <v>90807977.079999998</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C23" s="28">
         <v>129936576</v>
@@ -13996,20 +13987,20 @@
         <v>2015</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26005550.200000003</v>
+        <v>25990620.200000003</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103931025.8</v>
+        <v>103945955.8</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C24" s="28">
         <v>146215238.40000001</v>
@@ -14018,20 +14009,20 @@
         <v>2015</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29267036.680000003</v>
+        <v>29250721.680000003</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116948201.72</v>
+        <v>116964516.72</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C25" s="28">
         <v>28107340.800000001</v>
@@ -14040,20 +14031,20 @@
         <v>2015</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5626327.1600000001</v>
+        <v>5638378.1600000001</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22481013.640000001</v>
+        <v>22468962.640000001</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C26" s="28">
         <v>44533843.200000003</v>
@@ -14062,20 +14053,20 @@
         <v>2015</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8928987.6400000006</v>
+        <v>8922104.6400000006</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35604855.560000002</v>
+        <v>35611738.560000002</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C27" s="28">
         <v>60960345.599999987</v>
@@ -14084,20 +14075,20 @@
         <v>2015</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12192371.119999997</v>
+        <v>12201326.119999997</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48767974.479999989</v>
+        <v>48759019.479999989</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C28" s="28">
         <v>77386848</v>
@@ -14106,20 +14097,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15487462.600000001</v>
+        <v>15497826.600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61899385.399999999</v>
+        <v>61889021.399999999</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C29" s="28">
         <v>93813350.399999991</v>
@@ -14128,20 +14119,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18765685.079999998</v>
+        <v>18766817.079999998</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75047665.319999993</v>
+        <v>75046533.319999993</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C30" s="28">
         <v>110239852.8</v>
@@ -14150,20 +14141,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22054117.560000002</v>
+        <v>22061830.560000002</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88185735.239999995</v>
+        <v>88178022.239999995</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C31" s="28">
         <v>126666355.2</v>
@@ -14172,20 +14163,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25338368.040000003</v>
+        <v>25346107.040000003</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101327987.16</v>
+        <v>101320248.16</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C32" s="28">
         <v>143092857.59999999</v>
@@ -14194,20 +14185,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28641658.52</v>
+        <v>28634943.52</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114451199.08</v>
+        <v>114457914.08</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C33" s="28">
         <v>26448576</v>
@@ -14216,20 +14207,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5304127.2</v>
+        <v>5295756.2</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21144448.800000001</v>
+        <v>21152819.800000001</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="27" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C34" s="28">
         <v>42727238.399999999</v>
@@ -14238,20 +14229,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8563579.6799999997</v>
+        <v>8569648.6799999997</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34163658.719999999</v>
+        <v>34157589.719999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="27" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C35" s="28">
         <v>57675340.799999997</v>
@@ -14260,20 +14251,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11539305.16</v>
+        <v>11550310.16</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46136035.640000001</v>
+        <v>46125030.640000001</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C36" s="28">
         <v>74101843.200000003</v>
@@ -14282,15 +14273,15 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14838278.640000001</v>
+        <v>14840406.640000001</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59263564.560000002</v>
+        <v>59261436.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14326,10 +14317,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14350,7 +14341,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C38" s="30">
         <v>6</v>
@@ -14368,7 +14359,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C39" s="30">
         <v>7</v>
@@ -14426,13 +14417,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14440,7 +14431,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14452,10 +14443,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14477,10 +14468,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14501,10 +14492,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14525,10 +14516,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14549,10 +14540,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14574,10 +14565,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14599,10 +14590,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14624,10 +14615,10 @@
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14649,10 +14640,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14674,10 +14665,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14699,7 +14690,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14721,10 +14712,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14746,7 +14737,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14769,7 +14760,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14791,7 +14782,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14813,10 +14804,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14838,7 +14829,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14860,7 +14851,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14882,7 +14873,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14905,7 +14896,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14927,7 +14918,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14949,7 +14940,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14971,7 +14962,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14993,7 +14984,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15015,7 +15006,7 @@
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15037,7 +15028,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15059,10 +15050,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15084,10 +15075,10 @@
         <v>16</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15109,7 +15100,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15131,7 +15122,7 @@
         <v>17</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15154,7 +15145,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15176,10 +15167,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15201,10 +15192,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15226,10 +15217,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15251,10 +15242,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15276,7 +15267,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15298,7 +15289,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15320,7 +15311,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15342,10 +15333,10 @@
         <v>16</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H40" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15367,10 +15358,10 @@
         <v>9</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15392,7 +15383,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15414,7 +15405,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15436,7 +15427,7 @@
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15458,7 +15449,7 @@
         <v>11</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15480,7 +15471,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15502,7 +15493,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15524,7 +15515,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15546,7 +15537,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15568,7 +15559,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15590,7 +15581,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Bank_Data/JUN 2022.xlsx
+++ b/Sample_Bank_Data/JUN 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4FEC44A6-F370-4451-99A3-1F41E4B120F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2121C690-A934-4BC1-BF5B-A840EF7783AE}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4FEC44A6-F370-4451-99A3-1F41E4B120F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85B390AB-ED84-4C27-8674-6A931354DC8C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="301">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -3301,7 +3301,7 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8447,7 +8447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
@@ -13502,12 +13502,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:G36"/>
+  <dimension ref="A2:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
@@ -13516,7 +13519,10 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="24" t="s">
         <v>197</v>
       </c>
@@ -13536,7 +13542,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="1:7">
+      <c r="A3" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="27" t="s">
         <v>203</v>
       </c>
@@ -13551,14 +13560,17 @@
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F36" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>10803393.08</v>
+        <v>10803501.08</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G36" ca="1" si="1">C3-F3</f>
-        <v>43093157.32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1">
+        <v>43093049.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="27" t="s">
         <v>205</v>
       </c>
@@ -13573,14 +13585,17 @@
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13485838.560000001</v>
+        <v>13489126.560000001</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53880414.239999995</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1">
+        <v>53877126.239999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="27" t="s">
         <v>206</v>
       </c>
@@ -13595,14 +13610,17 @@
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21574447.200000003</v>
+        <v>21576087.200000003</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86186128.799999997</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>86184488.799999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="27" t="s">
         <v>207</v>
       </c>
@@ -13617,14 +13635,17 @@
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24238826.680000003</v>
+        <v>24236558.680000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96843611.719999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>96845879.719999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="27" t="s">
         <v>208</v>
       </c>
@@ -13639,14 +13660,17 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3337239.12</v>
+        <v>3331897.12</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13271106.48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>13276448.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="27" t="s">
         <v>209</v>
       </c>
@@ -13661,14 +13685,17 @@
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6614819.6000000006</v>
+        <v>6609423.6000000006</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26420028.399999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
+        <v>26425424.399999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="27" t="s">
         <v>210</v>
       </c>
@@ -13683,14 +13710,17 @@
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9914182.0800000001</v>
+        <v>9902490.0800000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39547168.32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>39558860.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="27" t="s">
         <v>211</v>
       </c>
@@ -13705,14 +13735,17 @@
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13201246.560000001</v>
+        <v>13194017.560000001</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52686606.239999995</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>52693835.239999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="27" t="s">
         <v>212</v>
       </c>
@@ -13727,14 +13760,17 @@
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16463401.039999999</v>
+        <v>16478257.039999999</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65850954.159999989</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>65836098.159999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="27" t="s">
         <v>213</v>
       </c>
@@ -13749,14 +13785,17 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19757212.520000003</v>
+        <v>19748969.520000003</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78983645.080000013</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1">
+        <v>78991888.080000013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1">
+      <c r="A13" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="27" t="s">
         <v>215</v>
       </c>
@@ -13771,14 +13810,17 @@
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23047868.200000003</v>
+        <v>23035961.200000003</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92104707.799999997</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>92116614.799999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="27" t="s">
         <v>216</v>
       </c>
@@ -13793,14 +13835,17 @@
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26307904.680000003</v>
+        <v>26305553.680000003</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105123333.72</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+        <v>105125684.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="27" t="s">
         <v>217</v>
       </c>
@@ -13815,14 +13860,17 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29292842.160000004</v>
+        <v>29285759.160000004</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117086498.64000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>117093581.64000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="27" t="s">
         <v>218</v>
       </c>
@@ -13837,14 +13885,17 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>2998454.64</v>
+        <v>2996304.64</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11967388.559999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>11969538.559999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="27" t="s">
         <v>219</v>
       </c>
@@ -13859,14 +13910,17 @@
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6282364.120000001</v>
+        <v>6287261.120000001</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25109981.48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>25105084.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="27" t="s">
         <v>220</v>
       </c>
@@ -13881,14 +13935,17 @@
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9574456.5999999996</v>
+        <v>9579957.5999999996</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38244391.399999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+        <v>38238890.399999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="27" t="s">
         <v>221</v>
       </c>
@@ -13903,14 +13960,17 @@
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12869798.08</v>
+        <v>12865515.08</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51375552.32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>51379835.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="27" t="s">
         <v>222</v>
       </c>
@@ -13925,14 +13985,17 @@
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16137253.560000001</v>
+        <v>16135969.560000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64534599.239999995</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+        <v>64535883.239999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="27" t="s">
         <v>223</v>
       </c>
@@ -13947,14 +14010,17 @@
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19424582.039999999</v>
+        <v>19424037.039999999</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77673773.159999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>77674318.159999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="27" t="s">
         <v>224</v>
       </c>
@@ -13969,14 +14035,17 @@
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22716880.52</v>
+        <v>22707861.52</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90807977.079999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>90816996.079999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="27" t="s">
         <v>225</v>
       </c>
@@ -13991,14 +14060,17 @@
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25990620.200000003</v>
+        <v>26010514.200000003</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103945955.8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+        <v>103926061.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="27" t="s">
         <v>226</v>
       </c>
@@ -14013,14 +14085,17 @@
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29250721.680000003</v>
+        <v>29249930.680000003</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116964516.72</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>116965307.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="27" t="s">
         <v>227</v>
       </c>
@@ -14035,14 +14110,17 @@
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5638378.1600000001</v>
+        <v>5636393.1600000001</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22468962.640000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>22470947.640000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="27" t="s">
         <v>228</v>
       </c>
@@ -14057,14 +14135,17 @@
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8922104.6400000006</v>
+        <v>8917081.6400000006</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35611738.560000002</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>35616761.560000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="27" t="s">
         <v>229</v>
       </c>
@@ -14079,14 +14160,17 @@
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12201326.119999997</v>
+        <v>12213884.119999997</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48759019.479999989</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>48746461.479999989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="27" t="s">
         <v>230</v>
       </c>
@@ -14101,14 +14185,17 @@
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15497826.600000001</v>
+        <v>15479012.600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61889021.399999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>61907835.399999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="27" t="s">
         <v>231</v>
       </c>
@@ -14123,14 +14210,17 @@
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18766817.079999998</v>
+        <v>18781416.079999998</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75046533.319999993</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>75031934.319999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="27" t="s">
         <v>232</v>
       </c>
@@ -14145,14 +14235,17 @@
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22061830.560000002</v>
+        <v>22065176.560000002</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88178022.239999995</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>88174676.239999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="27" t="s">
         <v>233</v>
       </c>
@@ -14167,14 +14260,17 @@
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25346107.040000003</v>
+        <v>25356648.040000003</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101320248.16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>101309707.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="27" t="s">
         <v>234</v>
       </c>
@@ -14189,14 +14285,17 @@
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28634943.52</v>
+        <v>28619847.52</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114457914.08</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>114473010.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="27" t="s">
         <v>235</v>
       </c>
@@ -14211,14 +14310,17 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5295756.2</v>
+        <v>5306527.2</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21152819.800000001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>21142048.800000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="27" t="s">
         <v>236</v>
       </c>
@@ -14233,14 +14335,17 @@
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8569648.6799999997</v>
+        <v>8564220.6799999997</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34157589.719999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>34163017.719999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="27" t="s">
         <v>237</v>
       </c>
@@ -14255,14 +14360,17 @@
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11550310.16</v>
+        <v>11548521.16</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46125030.640000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
+        <v>46126819.640000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="27" t="s">
         <v>238</v>
       </c>
@@ -14277,12 +14385,39 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14840406.640000001</v>
+        <v>14845020.640000001</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59261436.560000002</v>
-      </c>
+        <v>59256822.560000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="22"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="22"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="22"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="22"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="22"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="22"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="22"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="22"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14291,7 +14426,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:F39"/>
+  <dimension ref="A2:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -14306,7 +14441,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
@@ -14323,7 +14461,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:6">
+      <c r="A3" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="30" t="s">
         <v>52</v>
       </c>

--- a/Sample_Bank_Data/JUN 2022.xlsx
+++ b/Sample_Bank_Data/JUN 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4FEC44A6-F370-4451-99A3-1F41E4B120F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85B390AB-ED84-4C27-8674-6A931354DC8C}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{4FEC44A6-F370-4451-99A3-1F41E4B120F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BC2011C-725A-4006-AAA3-1E66523C9DAC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -3300,8 +3300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8448,7 +8448,7 @@
   <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13504,7 +13504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -13560,11 +13560,11 @@
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F36" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>10803501.08</v>
+        <v>10780895.08</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G36" ca="1" si="1">C3-F3</f>
-        <v>43093049.32</v>
+        <v>43115655.32</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
@@ -13585,11 +13585,11 @@
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13489126.560000001</v>
+        <v>13485193.560000001</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53877126.239999995</v>
+        <v>53881059.239999995</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
@@ -13610,11 +13610,11 @@
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21576087.200000003</v>
+        <v>21572421.200000003</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86184488.799999997</v>
+        <v>86188154.799999997</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -13635,11 +13635,11 @@
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24236558.680000003</v>
+        <v>24217212.680000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96845879.719999999</v>
+        <v>96865225.719999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -13660,11 +13660,11 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3331897.12</v>
+        <v>3344135.12</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13276448.48</v>
+        <v>13264210.48</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13685,11 +13685,11 @@
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6609423.6000000006</v>
+        <v>6607883.6000000006</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26425424.399999999</v>
+        <v>26426964.399999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
@@ -13710,11 +13710,11 @@
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9902490.0800000001</v>
+        <v>9912233.0800000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39558860.32</v>
+        <v>39549117.32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13194017.560000001</v>
+        <v>13181446.560000001</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52693835.239999995</v>
+        <v>52706406.239999995</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -13760,11 +13760,11 @@
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16478257.039999999</v>
+        <v>16471921.039999999</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65836098.159999989</v>
+        <v>65842434.159999989</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13785,11 +13785,11 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19748969.520000003</v>
+        <v>19755779.520000003</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78991888.080000013</v>
+        <v>78985078.080000013</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
@@ -13810,11 +13810,11 @@
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23035961.200000003</v>
+        <v>23045362.200000003</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92116614.799999997</v>
+        <v>92107213.799999997</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13835,11 +13835,11 @@
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26305553.680000003</v>
+        <v>26287659.680000003</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105125684.72</v>
+        <v>105143578.72</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
@@ -13860,11 +13860,11 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29285759.160000004</v>
+        <v>29282198.160000004</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117093581.64000002</v>
+        <v>117097142.64000002</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -13885,11 +13885,11 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>2996304.64</v>
+        <v>3009743.64</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11969538.559999999</v>
+        <v>11956099.559999999</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -13910,11 +13910,11 @@
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6287261.120000001</v>
+        <v>6286044.120000001</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25105084.48</v>
+        <v>25106301.48</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -13935,11 +13935,11 @@
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9579957.5999999996</v>
+        <v>9575004.5999999996</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38238890.399999999</v>
+        <v>38243843.399999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
@@ -13960,11 +13960,11 @@
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12865515.08</v>
+        <v>12872794.08</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51379835.32</v>
+        <v>51372556.32</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13985,11 +13985,11 @@
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16135969.560000001</v>
+        <v>16143032.560000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64535883.239999995</v>
+        <v>64528820.239999995</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
@@ -14010,11 +14010,11 @@
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19424037.039999999</v>
+        <v>19431974.039999999</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77674318.159999996</v>
+        <v>77666381.159999996</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -14035,11 +14035,11 @@
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22707861.52</v>
+        <v>22709359.52</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90816996.079999998</v>
+        <v>90815498.079999998</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -14060,11 +14060,11 @@
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26010514.200000003</v>
+        <v>25997900.200000003</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103926061.8</v>
+        <v>103938675.8</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
@@ -14085,11 +14085,11 @@
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29249930.680000003</v>
+        <v>29265242.680000003</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116965307.72</v>
+        <v>116949995.72</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -14110,11 +14110,11 @@
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5636393.1600000001</v>
+        <v>5646091.1600000001</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22470947.640000001</v>
+        <v>22461249.640000001</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -14135,11 +14135,11 @@
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8917081.6400000006</v>
+        <v>8913652.6400000006</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35616761.560000002</v>
+        <v>35620190.560000002</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
@@ -14160,11 +14160,11 @@
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12213884.119999997</v>
+        <v>12213761.119999997</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48746461.479999989</v>
+        <v>48746584.479999989</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -14185,11 +14185,11 @@
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15479012.600000001</v>
+        <v>15481739.600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61907835.399999999</v>
+        <v>61905108.399999999</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -14210,11 +14210,11 @@
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18781416.079999998</v>
+        <v>18777348.079999998</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75031934.319999993</v>
+        <v>75036002.319999993</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
@@ -14235,11 +14235,11 @@
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22065176.560000002</v>
+        <v>22057537.560000002</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88174676.239999995</v>
+        <v>88182315.239999995</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -14260,11 +14260,11 @@
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25356648.040000003</v>
+        <v>25353159.040000003</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101309707.16</v>
+        <v>101313196.16</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -14285,11 +14285,11 @@
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28619847.52</v>
+        <v>28633852.52</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114473010.08</v>
+        <v>114459005.08</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
@@ -14310,11 +14310,11 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5306527.2</v>
+        <v>5297073.2</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21142048.800000001</v>
+        <v>21151502.800000001</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -14335,11 +14335,11 @@
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8564220.6799999997</v>
+        <v>8555311.6799999997</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34163017.719999999</v>
+        <v>34171926.719999999</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -14360,11 +14360,11 @@
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11548521.16</v>
+        <v>11555480.16</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46126819.640000001</v>
+        <v>46119860.640000001</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -14385,11 +14385,11 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14845020.640000001</v>
+        <v>14838746.640000001</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59256822.560000002</v>
+        <v>59263096.560000002</v>
       </c>
     </row>
     <row r="37" spans="1:7">

--- a/Sample_Bank_Data/JUN 2022.xlsx
+++ b/Sample_Bank_Data/JUN 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4FEC44A6-F370-4451-99A3-1F41E4B120F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04ADED00-D2E3-42FF-B77B-21746D28C4BB}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{4FEC44A6-F370-4451-99A3-1F41E4B120F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BC2011C-725A-4006-AAA3-1E66523C9DAC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="301">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -469,9 +463,6 @@
     <t>Building4</t>
   </si>
   <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
-  </si>
-  <si>
     <t>75%</t>
   </si>
   <si>
@@ -520,370 +511,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Internal risk rating</t>
@@ -1926,33 +1662,33 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="M1" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1963,13 +1699,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -1980,13 +1716,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -1997,13 +1733,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -2014,13 +1750,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -2031,13 +1767,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -2048,13 +1784,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -2065,13 +1801,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -2082,13 +1818,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -2099,13 +1835,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -2116,13 +1852,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -2133,13 +1869,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2150,13 +1886,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -2167,13 +1903,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -2184,13 +1920,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -2201,13 +1937,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -2218,13 +1954,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2235,13 +1971,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2252,13 +1988,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2269,13 +2005,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2286,7 +2022,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2297,13 +2033,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="C23" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2311,10 +2047,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2322,7 +2058,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2345,21 +2081,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2373,7 +2109,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2387,7 +2123,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2401,7 +2137,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2415,7 +2151,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2429,7 +2165,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2443,7 +2179,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2457,7 +2193,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2471,7 +2207,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2485,7 +2221,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2499,7 +2235,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2513,7 +2249,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2527,7 +2263,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2541,7 +2277,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2555,7 +2291,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2569,7 +2305,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2583,7 +2319,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2597,7 +2333,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2611,7 +2347,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2625,7 +2361,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2639,7 +2375,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -3564,8 +3300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8712,7 +8448,7 @@
   <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8763,7 +8499,7 @@
         <v>6444691.5</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8772,10 +8508,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8795,7 +8531,7 @@
         <v>6444691.5</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8804,10 +8540,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8836,10 +8572,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8859,7 +8595,7 @@
         <v>12396164</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -8868,10 +8604,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8891,7 +8627,7 @@
         <v>12396164</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -8900,10 +8636,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8923,7 +8659,7 @@
         <v>49453383.5</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -8932,10 +8668,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8955,7 +8691,7 @@
         <v>49453383.5</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -8964,10 +8700,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8996,10 +8732,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -9019,7 +8755,7 @@
         <v>49430497</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -9028,10 +8764,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -9051,7 +8787,7 @@
         <v>49430497</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -9060,10 +8796,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -9083,7 +8819,7 @@
         <v>11711999</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -9092,10 +8828,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -9115,7 +8851,7 @@
         <v>11711999</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -9124,10 +8860,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -9147,7 +8883,7 @@
         <v>38307406</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -9156,10 +8892,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -9179,7 +8915,7 @@
         <v>38307406</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -9188,10 +8924,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -9220,10 +8956,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -9243,7 +8979,7 @@
         <v>28343322</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -9252,10 +8988,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -9275,7 +9011,7 @@
         <v>28343322</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -9284,10 +9020,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -9307,7 +9043,7 @@
         <v>43848327.5</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -9316,10 +9052,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -9339,7 +9075,7 @@
         <v>43848327.5</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9348,10 +9084,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9371,7 +9107,7 @@
         <v>27210677</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -9380,10 +9116,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -9403,7 +9139,7 @@
         <v>27210677</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -9412,10 +9148,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9435,7 +9171,7 @@
         <v>11722928</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9444,10 +9180,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9467,7 +9203,7 @@
         <v>11722928</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -9476,10 +9212,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9499,7 +9235,7 @@
         <v>33900396.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -9508,10 +9244,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9531,7 +9267,7 @@
         <v>33900396.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9540,10 +9276,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9563,7 +9299,7 @@
         <v>15993851</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -9572,10 +9308,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>156</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9595,7 +9331,7 @@
         <v>15993851</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9604,10 +9340,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9627,7 +9363,7 @@
         <v>38337995</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9636,10 +9372,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9659,7 +9395,7 @@
         <v>38337995</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9668,10 +9404,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9700,10 +9436,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9723,7 +9459,7 @@
         <v>10496168.5</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9732,10 +9468,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9755,7 +9491,7 @@
         <v>10496168.5</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9764,10 +9500,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9787,7 +9523,7 @@
         <v>45093281</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9796,10 +9532,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9819,7 +9555,7 @@
         <v>45093281</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -9828,10 +9564,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9860,10 +9596,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9883,7 +9619,7 @@
         <v>49397554.5</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -9892,10 +9628,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9915,7 +9651,7 @@
         <v>49397554.5</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -9924,10 +9660,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9956,10 +9692,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9979,7 +9715,7 @@
         <v>11634281</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -9988,10 +9724,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -10011,7 +9747,7 @@
         <v>11634281</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -10020,10 +9756,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -10043,7 +9779,7 @@
         <v>32756596.5</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -10052,10 +9788,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10075,7 +9811,7 @@
         <v>32756596.5</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -10084,10 +9820,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -10116,10 +9852,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -10139,7 +9875,7 @@
         <v>39423576</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -10148,10 +9884,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10171,7 +9907,7 @@
         <v>39423576</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -10180,10 +9916,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10212,10 +9948,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10235,7 +9971,7 @@
         <v>22722528.5</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -10244,10 +9980,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10267,7 +10003,7 @@
         <v>22722528.5</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -10276,10 +10012,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10308,10 +10044,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10331,7 +10067,7 @@
         <v>6139853</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -10340,10 +10076,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10363,7 +10099,7 @@
         <v>6139853</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -10372,10 +10108,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>181</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10404,10 +10140,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>182</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10427,7 +10163,7 @@
         <v>6263003</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -10436,10 +10172,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10459,7 +10195,7 @@
         <v>6263003</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -10468,10 +10204,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10500,10 +10236,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10523,7 +10259,7 @@
         <v>17240326</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -10532,10 +10268,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10555,7 +10291,7 @@
         <v>17240326</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -10564,10 +10300,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>187</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10596,10 +10332,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10619,7 +10355,7 @@
         <v>38242692</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10628,10 +10364,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10651,7 +10387,7 @@
         <v>38242692</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10660,10 +10396,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>190</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10692,10 +10428,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10715,7 +10451,7 @@
         <v>6150278.5</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10724,10 +10460,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10747,7 +10483,7 @@
         <v>6150278.5</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10756,10 +10492,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10788,10 +10524,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10811,7 +10547,7 @@
         <v>32807594.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10820,10 +10556,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10843,7 +10579,7 @@
         <v>32807594.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -10852,10 +10588,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10884,10 +10620,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10907,7 +10643,7 @@
         <v>28475620.5</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -10916,10 +10652,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10939,7 +10675,7 @@
         <v>28475620.5</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -10948,10 +10684,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10971,7 +10707,7 @@
         <v>39430554</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -10980,10 +10716,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -11003,7 +10739,7 @@
         <v>39430554</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -11012,10 +10748,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -11044,10 +10780,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11076,10 +10812,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -11108,10 +10844,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -11131,7 +10867,7 @@
         <v>38301481</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -11140,10 +10876,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11163,7 +10899,7 @@
         <v>38301481</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -11172,10 +10908,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11195,7 +10931,7 @@
         <v>43835199</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -11204,10 +10940,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11227,7 +10963,7 @@
         <v>43835199</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -11236,10 +10972,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11268,10 +11004,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11291,7 +11027,7 @@
         <v>22942872</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -11300,10 +11036,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11323,7 +11059,7 @@
         <v>22942872</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -11332,10 +11068,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11355,7 +11091,7 @@
         <v>11671843.5</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -11364,10 +11100,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11387,7 +11123,7 @@
         <v>11671843.5</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -11396,10 +11132,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11428,10 +11164,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11460,10 +11196,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11483,7 +11219,7 @@
         <v>28338414</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -11492,10 +11228,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11515,7 +11251,7 @@
         <v>28338414</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11524,10 +11260,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11547,7 +11283,7 @@
         <v>33916218.5</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -11556,10 +11292,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>218</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11579,7 +11315,7 @@
         <v>33916218.5</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -11588,10 +11324,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11620,10 +11356,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11643,7 +11379,7 @@
         <v>5573145</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11652,10 +11388,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11675,7 +11411,7 @@
         <v>5573145</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11684,10 +11420,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11707,7 +11443,7 @@
         <v>5542077</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11716,10 +11452,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11739,7 +11475,7 @@
         <v>5542077</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11748,10 +11484,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11780,10 +11516,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11803,7 +11539,7 @@
         <v>43839954.5</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11812,10 +11548,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11835,7 +11571,7 @@
         <v>43839954.5</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11844,10 +11580,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11876,10 +11612,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11899,7 +11635,7 @@
         <v>11735450</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -11908,10 +11644,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11931,7 +11667,7 @@
         <v>11735450</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -11940,10 +11676,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11972,10 +11708,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>231</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11995,7 +11731,7 @@
         <v>49477569.5</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -12004,10 +11740,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -12027,7 +11763,7 @@
         <v>49477569.5</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -12036,10 +11772,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -12059,7 +11795,7 @@
         <v>11828672.5</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -12068,10 +11804,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12091,7 +11827,7 @@
         <v>11828672.5</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -12100,10 +11836,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -12132,10 +11868,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12155,7 +11891,7 @@
         <v>6184611</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -12164,10 +11900,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12187,7 +11923,7 @@
         <v>6184611</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -12196,10 +11932,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12219,7 +11955,7 @@
         <v>17280080</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -12228,10 +11964,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12251,7 +11987,7 @@
         <v>17280080</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -12260,10 +11996,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12283,7 +12019,7 @@
         <v>32651935</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -12292,10 +12028,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12315,7 +12051,7 @@
         <v>32651935</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -12324,10 +12060,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>242</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12356,10 +12092,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12379,7 +12115,7 @@
         <v>38176726</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -12388,10 +12124,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12411,7 +12147,7 @@
         <v>38176726</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -12420,10 +12156,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12443,7 +12179,7 @@
         <v>49275162.5</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -12452,10 +12188,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12475,7 +12211,7 @@
         <v>49275162.5</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -12484,10 +12220,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12507,7 +12243,7 @@
         <v>22816544</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -12516,10 +12252,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12539,7 +12275,7 @@
         <v>22816544</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -12548,10 +12284,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>249</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12571,7 +12307,7 @@
         <v>22861216.5</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -12580,10 +12316,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12603,7 +12339,7 @@
         <v>22861216.5</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12612,10 +12348,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12635,7 +12371,7 @@
         <v>11776144</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12644,10 +12380,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12667,7 +12403,7 @@
         <v>11776144</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12676,10 +12412,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12699,7 +12435,7 @@
         <v>32650008</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12708,10 +12444,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12731,7 +12467,7 @@
         <v>32650008</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12740,10 +12476,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12772,10 +12508,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12795,7 +12531,7 @@
         <v>28455602.5</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12804,10 +12540,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12827,7 +12563,7 @@
         <v>28455602.5</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -12836,10 +12572,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12859,7 +12595,7 @@
         <v>17290559.5</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -12868,10 +12604,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12891,7 +12627,7 @@
         <v>17290559.5</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -12900,10 +12636,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12923,7 +12659,7 @@
         <v>27075444</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -12932,10 +12668,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12955,7 +12691,7 @@
         <v>27075444</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -12964,10 +12700,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12996,10 +12732,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -13019,7 +12755,7 @@
         <v>33916216.5</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -13028,10 +12764,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -13051,7 +12787,7 @@
         <v>33916216.5</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -13060,10 +12796,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13092,10 +12828,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -13115,7 +12851,7 @@
         <v>21675199</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -13124,10 +12860,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13147,7 +12883,7 @@
         <v>21675199</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -13156,10 +12892,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13179,7 +12915,7 @@
         <v>32699103</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -13188,10 +12924,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13211,7 +12947,7 @@
         <v>32699103</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -13220,10 +12956,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13243,7 +12979,7 @@
         <v>39486410</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -13252,10 +12988,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13275,7 +13011,7 @@
         <v>39486410</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -13284,10 +13020,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13316,10 +13052,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13339,7 +13075,7 @@
         <v>15982202</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13348,10 +13084,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13371,7 +13107,7 @@
         <v>15982202</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -13380,10 +13116,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13403,7 +13139,7 @@
         <v>27228826</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -13412,10 +13148,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>276</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13435,7 +13171,7 @@
         <v>27228826</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -13444,10 +13180,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13479,22 +13215,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -13726,7 +13462,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13756,7 +13492,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -13766,12 +13502,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:G36"/>
+  <dimension ref="A2:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
@@ -13780,29 +13519,35 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="24" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="27" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C3" s="28">
         <v>53896550.399999999</v>
@@ -13811,20 +13556,23 @@
         <v>2022</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F36" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>10800410.08</v>
+        <v>10780895.08</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G36" ca="1" si="1">C3-F3</f>
-        <v>43096140.32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1">
+        <v>43115655.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="27" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="C4" s="28">
         <v>67366252.799999997</v>
@@ -13833,20 +13581,23 @@
         <v>2019</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13486965.560000001</v>
+        <v>13485193.560000001</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53879287.239999995</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1">
+        <v>53881059.239999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="27" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="C5" s="28">
         <v>107760576</v>
@@ -13855,20 +13606,23 @@
         <v>2022</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21570068.200000003</v>
+        <v>21572421.200000003</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86190507.799999997</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>86188154.799999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="27" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="C6" s="28">
         <v>121082438.40000001</v>
@@ -13877,20 +13631,23 @@
         <v>2019</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24233820.680000003</v>
+        <v>24217212.680000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96848617.719999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>96865225.719999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="27" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C7" s="28">
         <v>16608345.6</v>
@@ -13899,20 +13656,23 @@
         <v>2022</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3323895.12</v>
+        <v>3344135.12</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13284450.48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>13264210.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="27" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="C8" s="28">
         <v>33034848</v>
@@ -13921,20 +13681,23 @@
         <v>2019</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6628402.6000000006</v>
+        <v>6607883.6000000006</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26406445.399999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
+        <v>26426964.399999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="27" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="C9" s="28">
         <v>49461350.399999999</v>
@@ -13943,20 +13706,23 @@
         <v>2020</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9916749.0800000001</v>
+        <v>9912233.0800000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39544601.32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>39549117.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="27" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="C10" s="28">
         <v>65887852.799999997</v>
@@ -13965,20 +13731,23 @@
         <v>2020</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13184483.560000001</v>
+        <v>13181446.560000001</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52703369.239999995</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>52706406.239999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="27" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="C11" s="28">
         <v>82314355.199999988</v>
@@ -13987,20 +13756,23 @@
         <v>2020</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16463103.039999999</v>
+        <v>16471921.039999999</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65851252.159999989</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>65842434.159999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="27" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C12" s="28">
         <v>98740857.600000009</v>
@@ -14009,20 +13781,23 @@
         <v>2020</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19768244.520000003</v>
+        <v>19755779.520000003</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78972613.080000013</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1">
+        <v>78985078.080000013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1">
+      <c r="A13" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="C13" s="28">
         <v>115152576</v>
@@ -14031,20 +13806,23 @@
         <v>2020</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23034858.200000003</v>
+        <v>23045362.200000003</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92117717.799999997</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>92107213.799999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="27" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="C14" s="28">
         <v>131431238.40000001</v>
@@ -14053,20 +13831,23 @@
         <v>2020</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26303417.680000003</v>
+        <v>26287659.680000003</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105127820.72</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+        <v>105143578.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="27" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="C15" s="28">
         <v>146379340.80000001</v>
@@ -14075,20 +13856,23 @@
         <v>2017</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29287073.160000004</v>
+        <v>29282198.160000004</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117092267.64000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>117097142.64000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="27" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="C16" s="28">
         <v>14965843.199999999</v>
@@ -14097,20 +13881,23 @@
         <v>2017</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3014296.64</v>
+        <v>3009743.64</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11951546.559999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>11956099.559999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="27" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="C17" s="28">
         <v>31392345.600000001</v>
@@ -14119,20 +13906,23 @@
         <v>2017</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6281546.120000001</v>
+        <v>6286044.120000001</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25110799.48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>25106301.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="27" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="C18" s="28">
         <v>47818848</v>
@@ -14141,20 +13931,23 @@
         <v>2017</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9569754.5999999996</v>
+        <v>9575004.5999999996</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38249093.399999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+        <v>38243843.399999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="27" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="C19" s="28">
         <v>64245350.399999999</v>
@@ -14163,20 +13956,23 @@
         <v>2017</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12864464.08</v>
+        <v>12872794.08</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51380886.32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>51372556.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="27" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="C20" s="28">
         <v>80671852.799999997</v>
@@ -14185,20 +13981,23 @@
         <v>2017</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16135757.560000001</v>
+        <v>16143032.560000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64536095.239999995</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+        <v>64528820.239999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="27" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="C21" s="28">
         <v>97098355.199999988</v>
@@ -14207,20 +14006,23 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19440678.039999999</v>
+        <v>19431974.039999999</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77657677.159999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>77666381.159999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="27" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="C22" s="28">
         <v>113524857.59999999</v>
@@ -14229,20 +14031,23 @@
         <v>2015</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22726963.52</v>
+        <v>22709359.52</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90797894.079999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>90815498.079999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="C23" s="28">
         <v>129936576</v>
@@ -14251,20 +14056,23 @@
         <v>2015</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26008828.200000003</v>
+        <v>25997900.200000003</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103927747.8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+        <v>103938675.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="27" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="C24" s="28">
         <v>146215238.40000001</v>
@@ -14273,20 +14081,23 @@
         <v>2015</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29267406.680000003</v>
+        <v>29265242.680000003</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116947831.72</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>116949995.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="27" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="C25" s="28">
         <v>28107340.800000001</v>
@@ -14295,20 +14106,23 @@
         <v>2015</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5643275.1600000001</v>
+        <v>5646091.1600000001</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22464065.640000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>22461249.640000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="27" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="C26" s="28">
         <v>44533843.200000003</v>
@@ -14317,20 +14131,23 @@
         <v>2015</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8920730.6400000006</v>
+        <v>8913652.6400000006</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35613112.560000002</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>35620190.560000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="27" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="C27" s="28">
         <v>60960345.599999987</v>
@@ -14339,20 +14156,23 @@
         <v>2015</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12203609.119999997</v>
+        <v>12213761.119999997</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48756736.479999989</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>48746584.479999989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="27" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="C28" s="28">
         <v>77386848</v>
@@ -14361,20 +14181,23 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15482570.600000001</v>
+        <v>15481739.600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61904277.399999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>61905108.399999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="27" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="C29" s="28">
         <v>93813350.399999991</v>
@@ -14383,20 +14206,23 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18766890.079999998</v>
+        <v>18777348.079999998</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75046460.319999993</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>75036002.319999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="27" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="C30" s="28">
         <v>110239852.8</v>
@@ -14405,20 +14231,23 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22059450.560000002</v>
+        <v>22057537.560000002</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88180402.239999995</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>88182315.239999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="27" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C31" s="28">
         <v>126666355.2</v>
@@ -14427,20 +14256,23 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25356586.040000003</v>
+        <v>25353159.040000003</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101309769.16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>101313196.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="27" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="C32" s="28">
         <v>143092857.59999999</v>
@@ -14449,20 +14281,23 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28640016.52</v>
+        <v>28633852.52</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114452841.08</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>114459005.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="27" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="C33" s="28">
         <v>26448576</v>
@@ -14471,20 +14306,23 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5292413.2</v>
+        <v>5297073.2</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21156162.800000001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>21151502.800000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="27" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="C34" s="28">
         <v>42727238.399999999</v>
@@ -14493,20 +14331,23 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8566520.6799999997</v>
+        <v>8555311.6799999997</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34160717.719999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>34171926.719999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="27" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="C35" s="28">
         <v>57675340.799999997</v>
@@ -14515,20 +14356,23 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11548186.16</v>
+        <v>11555480.16</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46127154.640000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
+        <v>46119860.640000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="27" t="s">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="C36" s="28">
         <v>74101843.200000003</v>
@@ -14537,16 +14381,43 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14822642.640000001</v>
+        <v>14838746.640000001</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59279200.560000002</v>
-      </c>
+        <v>59263096.560000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="22"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="22"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="22"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="22"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="22"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="22"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="22"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="22"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14555,7 +14426,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:F39"/>
+  <dimension ref="A2:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -14570,7 +14441,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
@@ -14581,13 +14455,16 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="30" t="s">
         <v>52</v>
       </c>
@@ -14605,7 +14482,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="30" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="C38" s="30">
         <v>6</v>
@@ -14623,7 +14500,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="30" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="C39" s="30">
         <v>7</v>
@@ -14681,13 +14558,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14695,7 +14572,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14707,10 +14584,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14732,10 +14609,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14756,10 +14633,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14780,10 +14657,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14804,10 +14681,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H6" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14829,10 +14706,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14854,10 +14731,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14879,10 +14756,10 @@
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14904,10 +14781,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14929,10 +14806,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14954,7 +14831,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14976,10 +14853,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -15001,7 +14878,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -15024,7 +14901,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -15046,7 +14923,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -15068,10 +14945,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H17" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -15093,7 +14970,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -15115,7 +14992,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -15137,7 +15014,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15160,7 +15037,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15182,7 +15059,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15204,7 +15081,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15226,7 +15103,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15248,7 +15125,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15270,7 +15147,7 @@
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15292,7 +15169,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15314,10 +15191,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H28" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15339,10 +15216,10 @@
         <v>16</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H29" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15364,7 +15241,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15386,7 +15263,7 @@
         <v>17</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15409,7 +15286,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15431,10 +15308,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H33" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15456,10 +15333,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15481,10 +15358,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H35" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15506,10 +15383,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15531,7 +15408,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15553,7 +15430,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15575,7 +15452,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15597,10 +15474,10 @@
         <v>16</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H40" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15622,10 +15499,10 @@
         <v>9</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H41" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15647,7 +15524,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15669,7 +15546,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15691,7 +15568,7 @@
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15713,7 +15590,7 @@
         <v>11</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15735,7 +15612,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15757,7 +15634,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15779,7 +15656,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15801,7 +15678,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15823,7 +15700,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15845,7 +15722,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
